--- a/软件功能开发进度列表.xlsx
+++ b/软件功能开发进度列表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="73">
   <si>
     <t>基础平台</t>
   </si>
@@ -229,6 +229,12 @@
   </si>
   <si>
     <t>页面样例</t>
+  </si>
+  <si>
+    <t>文件下载</t>
+  </si>
+  <si>
+    <t>下载文件到手机内存</t>
   </si>
 </sst>
 </file>
@@ -317,13 +323,7 @@
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -336,6 +336,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -687,10 +693,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C2:O60"/>
+  <dimension ref="C2:O61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -699,686 +705,701 @@
     <col min="4" max="4" width="46.7109375" customWidth="1"/>
     <col min="5" max="5" width="5.7109375" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" customWidth="1"/>
-    <col min="12" max="12" width="3.140625" customWidth="1"/>
+    <col min="12" max="12" width="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:15">
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="1"/>
+      <c r="F2" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="I2" s="1" t="s">
+      <c r="G2" s="10"/>
+      <c r="I2" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
     </row>
     <row r="3" spans="3:15">
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2" t="s">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="M3" s="1" t="s">
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="M3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
     </row>
     <row r="4" spans="3:15">
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
     </row>
     <row r="5" spans="3:15">
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="6" t="s">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="3:15">
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="6" t="s">
+      <c r="E6" s="3"/>
+      <c r="F6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="3:15">
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="6" t="s">
+      <c r="E7" s="3"/>
+      <c r="F7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="3:15">
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="6" t="s">
+      <c r="E8" s="3"/>
+      <c r="F8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="3:15">
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="6" t="s">
+      <c r="E9" s="3"/>
+      <c r="F9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="3:15">
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="7" t="s">
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="3:15">
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
     </row>
     <row r="12" spans="3:15">
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
     </row>
     <row r="13" spans="3:15">
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="8" t="s">
+      <c r="E13" s="3"/>
+      <c r="F13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="14" spans="3:15">
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G14" s="8" t="s">
+      <c r="E14" s="3"/>
+      <c r="F14" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="15" spans="3:15">
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G15" s="8" t="s">
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="16" spans="3:15">
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G16" s="8" t="s">
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="6" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="17" spans="3:7">
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
+      <c r="C17" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="18" spans="3:7">
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="3:7">
+      <c r="C19" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="3:7">
-      <c r="C19" s="5" t="s">
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="3:7">
+      <c r="C20" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="3:7">
-      <c r="C20" s="5" t="s">
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7">
+      <c r="C21" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="3:7">
-      <c r="C21" s="5" t="s">
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7">
+      <c r="C22" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="3:7">
-      <c r="C22" s="5" t="s">
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7">
+      <c r="C23" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="3:7">
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="24" spans="3:7">
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="3:7">
+      <c r="C25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-    </row>
-    <row r="25" spans="3:7">
-      <c r="C25" s="11" t="s">
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="3:7">
+      <c r="C26" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25" s="7" t="s">
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="3:7">
-      <c r="C26" s="4" t="s">
+    <row r="27" spans="3:7">
+      <c r="C27" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-    </row>
-    <row r="27" spans="3:7">
-      <c r="C27" s="11" t="s">
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="3:7">
+      <c r="C28" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D28" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E27" s="11"/>
-      <c r="F27" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="3:7">
-      <c r="C28" s="4" t="s">
+      <c r="E28" s="9"/>
+      <c r="F28" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7">
+      <c r="C29" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-    </row>
-    <row r="29" spans="3:7">
-      <c r="C29" s="9" t="s">
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="3:7">
+      <c r="C30" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="3:7">
-      <c r="C30" s="9" t="s">
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7">
+      <c r="C31" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="3:7">
-      <c r="C31" s="9" t="s">
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7">
+      <c r="C32" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="7" t="s">
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="G32" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="3:7">
-      <c r="C32" s="9" t="s">
+    <row r="33" spans="3:7">
+      <c r="C33" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" spans="3:7">
-      <c r="C33" s="9" t="s">
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7">
+      <c r="C34" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="34" spans="3:7">
-      <c r="C34" s="10" t="s">
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7">
+      <c r="C35" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-    </row>
-    <row r="35" spans="3:7">
-      <c r="C35" s="9" t="s">
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="3:7">
+      <c r="C36" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" spans="3:7">
-      <c r="C36" s="9" t="s">
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="3:7">
+      <c r="C37" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D37" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E36" s="5"/>
-      <c r="F36" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="3:7">
-      <c r="C37" s="9" t="s">
+      <c r="E37" s="3"/>
+      <c r="F37" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="3:7">
+      <c r="C38" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" spans="3:7">
-      <c r="C38" s="9" t="s">
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="3:7">
+      <c r="C39" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="3:7">
-      <c r="C39" s="9" t="s">
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="3:7">
+      <c r="C40" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="40" spans="3:7">
-      <c r="C40" s="10" t="s">
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="3:7">
+      <c r="C41" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-    </row>
-    <row r="41" spans="3:7">
-      <c r="C41" s="9" t="s">
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" spans="3:7">
+      <c r="C42" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G41" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="42" spans="3:7">
-      <c r="C42" s="9" t="s">
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="3:7">
+      <c r="C43" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G42" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="43" spans="3:7">
-      <c r="C43" s="9" t="s">
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="3:7">
+      <c r="C44" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D44" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E43" s="5"/>
-      <c r="F43" s="7" t="s">
+      <c r="E44" s="3"/>
+      <c r="F44" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G43" s="7" t="s">
+      <c r="G44" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="3:7">
-      <c r="C44" s="4" t="s">
+    <row r="45" spans="3:7">
+      <c r="C45" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-    </row>
-    <row r="45" spans="3:7">
-      <c r="C45" s="9" t="s">
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+    </row>
+    <row r="46" spans="3:7">
+      <c r="C46" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G45" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46" spans="3:7">
-      <c r="C46" s="9" t="s">
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="3:7">
+      <c r="C47" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="7" t="s">
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G46" s="7" t="s">
+      <c r="G47" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="3:7">
-      <c r="C47" s="4" t="s">
+    <row r="48" spans="3:7">
+      <c r="C48" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-    </row>
-    <row r="48" spans="3:7">
-      <c r="C48" s="9" t="s">
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+    </row>
+    <row r="49" spans="3:7">
+      <c r="C49" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G48" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="49" spans="3:7">
-      <c r="C49" s="9" t="s">
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" spans="3:7">
+      <c r="C50" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G49" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" spans="3:7">
-      <c r="C50" s="5" t="s">
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51" spans="3:7">
+      <c r="C51" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G50" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="54" spans="3:7">
-      <c r="C54" s="2" t="s">
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="55" spans="3:7">
+      <c r="C55" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-    </row>
-    <row r="55" spans="3:7">
-      <c r="C55" s="5" t="s">
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+    </row>
+    <row r="56" spans="3:7">
+      <c r="C56" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-    </row>
-    <row r="56" spans="3:7">
-      <c r="C56" s="5" t="s">
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+    </row>
+    <row r="57" spans="3:7">
+      <c r="C57" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-    </row>
-    <row r="57" spans="3:7">
-      <c r="C57" s="5" t="s">
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+    </row>
+    <row r="58" spans="3:7">
+      <c r="C58" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-    </row>
-    <row r="58" spans="3:7">
-      <c r="C58" s="5" t="s">
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+    </row>
+    <row r="59" spans="3:7">
+      <c r="C59" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="D59" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-    </row>
-    <row r="59" spans="3:7">
-      <c r="C59" s="5" t="s">
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+    </row>
+    <row r="60" spans="3:7">
+      <c r="C60" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
-    </row>
-    <row r="60" spans="3:7">
-      <c r="C60" s="5" t="s">
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+    </row>
+    <row r="61" spans="3:7">
+      <c r="C61" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/软件功能开发进度列表.xlsx
+++ b/软件功能开发进度列表.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="20115" windowHeight="7230"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="20115" windowHeight="7230" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="change list" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="76">
   <si>
     <t>基础平台</t>
   </si>
@@ -235,6 +235,15 @@
   </si>
   <si>
     <t>下载文件到手机内存</t>
+  </si>
+  <si>
+    <t>public void writeBoolean(boolean val)</t>
+  </si>
+  <si>
+    <t>Added method</t>
+  </si>
+  <si>
+    <t>IFileOutputStream.java</t>
   </si>
 </sst>
 </file>
@@ -695,7 +704,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C2:O61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
@@ -1415,12 +1424,40 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="C2:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="29.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="42.7109375" customWidth="1"/>
+    <col min="6" max="6" width="33" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:6">
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6">
+      <c r="C4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/软件功能开发进度列表.xlsx
+++ b/软件功能开发进度列表.xlsx
@@ -9,21 +9,23 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19368" windowHeight="9132" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19368" windowHeight="9132" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="change list" sheetId="2" r:id="rId2"/>
-    <sheet name="bugs" sheetId="6" r:id="rId3"/>
-    <sheet name="UI usage" sheetId="8" r:id="rId4"/>
-    <sheet name=".xml.Lua structure" sheetId="9" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="10" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="11" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="change list" sheetId="2" r:id="rId4"/>
+    <sheet name="bugs" sheetId="6" r:id="rId5"/>
+    <sheet name="UI usage" sheetId="8" r:id="rId6"/>
+    <sheet name=".xml.Lua structure" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="298">
   <si>
     <t>基础平台</t>
   </si>
@@ -62,9 +64,6 @@
   </si>
   <si>
     <t>支持网络远程调用</t>
-  </si>
-  <si>
-    <t>程序文件和资源文件可安装在网络服务器上。</t>
   </si>
   <si>
     <t>完成</t>
@@ -368,6 +367,580 @@
   </si>
   <si>
     <t>FileConnector.java</t>
+  </si>
+  <si>
+    <t>UIFactory.jva</t>
+  </si>
+  <si>
+    <t>public void switchView(String name)
+ public void switchView(String name,String callback)</t>
+  </si>
+  <si>
+    <t>public void switchView(String pageName,String callback,String params,boolean needReload):::  
+LuaContext.getInstance().doString("exit()");
+     v.show();
+     v.execCallBack(callback);</t>
+  </si>
+  <si>
+    <t>BodyView.java
+UIFactory.jva</t>
+  </si>
+  <si>
+    <t>muiltiple line, update how to run Callback function</t>
+  </si>
+  <si>
+    <t>cleanViewCache()</t>
+  </si>
+  <si>
+    <t>StackX.java</t>
+  </si>
+  <si>
+    <t>public void switchView(String pageName,String callback,String params,boolean needReload)
+this.viewStack.push(name);</t>
+  </si>
+  <si>
+    <t>OLAProperties.java</t>
+  </si>
+  <si>
+    <t>protected void onPostExecute(String result)
+add line:
+UIFactory.viewStack.push(name);</t>
+  </si>
+  <si>
+    <t>AppProperties</t>
+  </si>
+  <si>
+    <t>public void exit()</t>
+  </si>
+  <si>
+    <t>OLAProperties.java
+PortalProperties.java</t>
+  </si>
+  <si>
+    <t>public void startApp(String appName)
+add view backup stack</t>
+  </si>
+  <si>
+    <t>onKeyDown()
+updated back actions</t>
+  </si>
+  <si>
+    <t>parseCSS()
+update CSS style align and valign's default value to "center"
+else
+  {
+   p.addRule(RelativeLayout.CENTER_VERTICAL,RelativeLayout.TRUE);
+  }</t>
+  </si>
+  <si>
+    <t>CSS.java</t>
+  </si>
+  <si>
+    <t>String verticalAlign="middle";
+ // text position
+ String textAlign="center";</t>
+  </si>
+  <si>
+    <t>passed</t>
+  </si>
+  <si>
+    <t>notpassed by IOS</t>
+  </si>
+  <si>
+    <t>HTTP.java</t>
+  </si>
+  <si>
+    <t>update class</t>
+  </si>
+  <si>
+    <t>setBackgroundImageUrl()
+added download network URLs</t>
+  </si>
+  <si>
+    <t>setBackgroundImageUrl()
+added to use cookies</t>
+  </si>
+  <si>
+    <t>Pim.java</t>
+  </si>
+  <si>
+    <t>&lt;div layout="LinearLayout" style="orientation:horizontal;valign:middle;width:auto; align:right;"&gt;</t>
+  </si>
+  <si>
+    <t>align 属性无效，不能使DIV中的元素居中</t>
+  </si>
+  <si>
+    <t>added Border</t>
+  </si>
+  <si>
+    <t>Iwedgit.java, CSS.java</t>
+  </si>
+  <si>
+    <t>图型背景尚未加上加框</t>
+  </si>
+  <si>
+    <t>added font style, font size</t>
+  </si>
+  <si>
+    <t>added default CSS</t>
+  </si>
+  <si>
+    <t>Ibutton.java,Iwedgit.java,CSS.java</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>added code to process Cookies ,for logon URLs</t>
+  </si>
+  <si>
+    <t>remove Android's same name method</t>
+  </si>
+  <si>
+    <t>is V 5.1.5</t>
+  </si>
+  <si>
+    <t>ICheckBox.java</t>
+  </si>
+  <si>
+    <t>IOS不能在lua的initiate函数中自动调用，否则会出错退出，需要手动触发。</t>
+  </si>
+  <si>
+    <t>added Password TEXTFIeld Type</t>
+  </si>
+  <si>
+    <t>Location.java</t>
+  </si>
+  <si>
+    <t>GPS location</t>
+  </si>
+  <si>
+    <t>Log.java</t>
+  </si>
+  <si>
+    <t>logger wrapper</t>
+  </si>
+  <si>
+    <t>减少网络连接测试时间
+AbstractProperties.java
+1.move isAppServerAccessed to "public static"
+2.change to: if(appServer.startsWith("http://") &amp;&amp; isAppServerAccessed)
+3.add:
+   else
+      {
+         appServer="";
+      }
+UIFactory.loadOnline()
+add:urlConn.setConnectTimeout(10000);</t>
+  </si>
+  <si>
+    <t>lua 公用改件改为sandbox/lua下来，修改package.loader注册路径，main中copy lua/目录到手机中</t>
+  </si>
+  <si>
+    <t>added WebView</t>
+  </si>
+  <si>
+    <t>IWebView.java</t>
+  </si>
+  <si>
+    <t>VideoPlayer.java</t>
+  </si>
+  <si>
+    <t>BaiDUMap.java</t>
+  </si>
+  <si>
+    <t>added</t>
+  </si>
+  <si>
+    <t>updated</t>
+  </si>
+  <si>
+    <t>for Bai Du map</t>
+  </si>
+  <si>
+    <t>for LBS location service</t>
+  </si>
+  <si>
+    <t>added methods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public void setOnclick(String onclick)
+    {
+     this.onclick=onclick;
+    }
+    public void setPressed(String pressed)
+    {
+     this.pressed=pressed;
+    }
+    public void setReleased(String released)
+    {
+     this.released=released;
+    }</t>
+  </si>
+  <si>
+    <t>Session.java</t>
+  </si>
+  <si>
+    <t>为了减少图片重复率，当图片路径为“$/...”时，取为根路径，否则为app相对路径，
+public void setBackgroundImageUrl(String backgroundImageUrl,String cookies)
+else
+  {
+   if(backgroundImageUrl.startsWith("$/"))
+   {
+    bgImageURL= OLA.base + backgroundImageUrl.substring(1);
+   }
+   else
+   {
+    bgImageURL= base + backgroundImageUrl;
+   }
+  }</t>
+  </si>
+  <si>
+    <t>MethodThread.java</t>
+  </si>
+  <si>
+    <t>bug</t>
+  </si>
+  <si>
+    <t>AsyncDownload.java</t>
+  </si>
+  <si>
+    <t>1.url进行URLEncode
+2.callback 函数进行动态组装，允许带有算定义参数
+3.自动识别服务器提供 的下载的文件的默认文件名</t>
+  </si>
+  <si>
+    <t>为了能在app之间存储全局变量</t>
+  </si>
+  <si>
+    <t>Database.java</t>
+  </si>
+  <si>
+    <t>启动时copy lua, images目录</t>
+  </si>
+  <si>
+    <t>added prepared statement methods
+updare return string:
+      value=value.replace("'", "\\'");</t>
+  </si>
+  <si>
+    <t>jni/lua/lfs.c</t>
+  </si>
+  <si>
+    <t>added lfs lib to lua, FileConnector will not be used any more</t>
+  </si>
+  <si>
+    <t>else if (name.equalsIgnoreCase("PASSWORD"))
+     {
+      ITextField t= new ITextField(rootView,context,n);
+      t.setInputType(ITextField.TYPE_MASK_FLAGS, ITextField.TYPE_TEXT_VARIATION_WEB_PASSWORD);
+      v=t;
+     }</t>
+  </si>
+  <si>
+    <t>added UI type</t>
+  </si>
+  <si>
+    <t>add method</t>
+  </si>
+  <si>
+    <t>public String getRootViewId()</t>
+  </si>
+  <si>
+    <t>IProgressBar.java</t>
+  </si>
+  <si>
+    <t>muiltiple lines</t>
+  </si>
+  <si>
+    <t>update method switchView()
+added code:
+before load new view, show loading page, after loaded, remove the loading page</t>
+  </si>
+  <si>
+    <t>ProgressBar</t>
+  </si>
+  <si>
+    <t>attr</t>
+  </si>
+  <si>
+    <t>css</t>
+  </si>
+  <si>
+    <t>values</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">General </t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>rorate</t>
+  </si>
+  <si>
+    <t>a rotate(circle) view</t>
+  </si>
+  <si>
+    <t>image's url</t>
+  </si>
+  <si>
+    <t>bar</t>
+  </si>
+  <si>
+    <t>circle</t>
+  </si>
+  <si>
+    <t>a horizon bar progress bar</t>
+  </si>
+  <si>
+    <t>a circle progress bar</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>px</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>100px;</t>
+  </si>
+  <si>
+    <t>hex RGB color</t>
+  </si>
+  <si>
+    <t>progress-image</t>
+  </si>
+  <si>
+    <t>#00FFFFFF;</t>
+  </si>
+  <si>
+    <t>lfs.c</t>
+  </si>
+  <si>
+    <t>assert文件在APP path下面，则程序不能下载更新lua代码,需转移lua文件到Douments下，则可下载更新</t>
+  </si>
+  <si>
+    <t>done
+oc self supported, defined in Iview.h</t>
+  </si>
+  <si>
+    <t>ignored, needn't to copy it</t>
+  </si>
+  <si>
+    <t>database</t>
+  </si>
+  <si>
+    <t>need to be transered to use Sqlite3.lua</t>
+  </si>
+  <si>
+    <t>auto be executed while entered the is view</t>
+  </si>
+  <si>
+    <t>will be executed while exit this view and switch to an other page</t>
+  </si>
+  <si>
+    <t>the file name should be "*.xml.lua"</t>
+  </si>
+  <si>
+    <t>Log</t>
+  </si>
+  <si>
+    <t>Log:d(u,m)</t>
+  </si>
+  <si>
+    <t>u--module name
+m--messages</t>
+  </si>
+  <si>
+    <t>Log:i(u,m)</t>
+  </si>
+  <si>
+    <t>Log:f(u,m)</t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>lui</t>
+  </si>
+  <si>
+    <t>lui is a encapesulated ui toolkit, see: lua_ui.lua</t>
+  </si>
+  <si>
+    <t>createView(viewXml)</t>
+  </si>
+  <si>
+    <t>create an UI view</t>
+  </si>
+  <si>
+    <t>viewXml-- the view's description xml string</t>
+  </si>
+  <si>
+    <t>rerutn--view's id, if the view xml do not has an ID, will auto assigned one</t>
+  </si>
+  <si>
+    <t>xml should has only one root(top) xml node, or will be wrong</t>
+  </si>
+  <si>
+    <t>addView(id)</t>
+  </si>
+  <si>
+    <t>add a sub view to the current view</t>
+  </si>
+  <si>
+    <t>removeView(id)</t>
+  </si>
+  <si>
+    <t>remove a subview</t>
+  </si>
+  <si>
+    <t>switch(viewName, callMethod, params)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forward to another view </t>
+  </si>
+  <si>
+    <t>viewName</t>
+  </si>
+  <si>
+    <t>the view's xml file name will be forwarded to</t>
+  </si>
+  <si>
+    <t>callMethod</t>
+  </si>
+  <si>
+    <t>called method name while entered the forwarded view</t>
+  </si>
+  <si>
+    <t>params</t>
+  </si>
+  <si>
+    <t>param values for the next view</t>
+  </si>
+  <si>
+    <t>getParameters()</t>
+  </si>
+  <si>
+    <t>get the parameter string which was transferred from the previous view</t>
+  </si>
+  <si>
+    <t>LMProperties:exit()</t>
+  </si>
+  <si>
+    <t>in an app, this method while return the app to the portal app</t>
+  </si>
+  <si>
+    <t>sys.reload()</t>
+  </si>
+  <si>
+    <t>reload/refresh the current view, only for Android(mainlyfor Test)</t>
+  </si>
+  <si>
+    <t>this function is available for portal app</t>
+  </si>
+  <si>
+    <t>while will remove all the cached view infor form the cache</t>
+  </si>
+  <si>
+    <t>will a swipe gesture was recognized, the method will be executed</t>
+  </si>
+  <si>
+    <t>direction</t>
+  </si>
+  <si>
+    <t>swipe directions, an int value:
+1--swipe to right
+2--swipre to left</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> function swipe(direction)
+  if direction==1 then  next()   elseif direction==2 then    previous()  end
+ end</t>
+  </si>
+  <si>
+    <t>default functions</t>
+  </si>
+  <si>
+    <t>function initiate()</t>
+  </si>
+  <si>
+    <t>function exit()</t>
+  </si>
+  <si>
+    <t>function swipe(direction)</t>
+  </si>
+  <si>
+    <t>if returns 0, will exit the app and back to portal, if it is already in portal, exit the software</t>
+  </si>
+  <si>
+    <t>if returns 1, it is an inner view's back action, do nothing else except the code in this function</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> function back()
+    ui:switchView("StudyView.xml","reset()","")
+     return 1
+ end</t>
+  </si>
+  <si>
+    <t>function back()</t>
+  </si>
+  <si>
+    <t>life cycle</t>
+  </si>
+  <si>
+    <t>default objects</t>
+  </si>
+  <si>
+    <t>分辨率</t>
+  </si>
+  <si>
+    <t>1080*1920</t>
+  </si>
+  <si>
+    <t>MeiZu</t>
+  </si>
+  <si>
+    <t>note2</t>
+  </si>
+  <si>
+    <t>Iphone Retina 3.5'</t>
+  </si>
+  <si>
+    <t>320*480</t>
+  </si>
+  <si>
+    <t>测试机</t>
+  </si>
+  <si>
+    <t>原生代码可调脚本代码</t>
+  </si>
+  <si>
+    <t>脚本注入原生环境</t>
+  </si>
+  <si>
+    <t>added getResponse methods</t>
+  </si>
+  <si>
+    <t>IOS auto managed</t>
+  </si>
+  <si>
+    <t>ignored</t>
   </si>
   <si>
     <t>if app server cannot be connected, use local files.  
@@ -386,581 +959,70 @@
    {
     isAppServerAccessed=true;
    }
-  }
+  }  
   if(!isAppServerAccessed || isPlatformApp || appServer==null || appServer=="" || !appServer.startsWith("http://")) appBase=sandboxRoot+appBase;
   else appBase=appServer+"/"+appBase;</t>
   </si>
   <si>
-    <t>UIFactory.jva</t>
-  </si>
-  <si>
-    <t>public void switchView(String name)
- public void switchView(String name,String callback)</t>
-  </si>
-  <si>
-    <t>public void switchView(String pageName,String callback,String params,boolean needReload):::  
-LuaContext.getInstance().doString("exit()");
-     v.show();
-     v.execCallBack(callback);</t>
-  </si>
-  <si>
-    <t>BodyView.java
-UIFactory.jva</t>
-  </si>
-  <si>
-    <t>muiltiple line, update how to run Callback function</t>
-  </si>
-  <si>
-    <t>cleanViewCache()</t>
-  </si>
-  <si>
-    <t>StackX.java</t>
-  </si>
-  <si>
-    <t>public void switchView(String pageName,String callback,String params,boolean needReload)
-this.viewStack.push(name);</t>
-  </si>
-  <si>
-    <t>OLAProperties.java</t>
-  </si>
-  <si>
-    <t>protected void onPostExecute(String result)
-add line:
-UIFactory.viewStack.push(name);</t>
-  </si>
-  <si>
-    <t>AppProperties</t>
-  </si>
-  <si>
-    <t>public void exit()</t>
-  </si>
-  <si>
-    <t>OLAProperties.java
-PortalProperties.java</t>
-  </si>
-  <si>
-    <t>public void startApp(String appName)
-add view backup stack</t>
-  </si>
-  <si>
-    <t>onKeyDown()
-updated back actions</t>
-  </si>
-  <si>
-    <t>parseCSS()
-update CSS style align and valign's default value to "center"
-else
-  {
-   p.addRule(RelativeLayout.CENTER_VERTICAL,RelativeLayout.TRUE);
-  }</t>
-  </si>
-  <si>
-    <t>CSS.java</t>
-  </si>
-  <si>
-    <t>String verticalAlign="middle";
- // text position
- String textAlign="center";</t>
-  </si>
-  <si>
-    <t>passed</t>
-  </si>
-  <si>
-    <t>notpassed by IOS</t>
-  </si>
-  <si>
-    <t>HTTP.java</t>
-  </si>
-  <si>
-    <t>update class</t>
-  </si>
-  <si>
-    <t>setBackgroundImageUrl()
-added download network URLs</t>
-  </si>
-  <si>
-    <t>setBackgroundImageUrl()
-added to use cookies</t>
-  </si>
-  <si>
-    <t>Pim.java</t>
-  </si>
-  <si>
-    <t>&lt;div layout="LinearLayout" style="orientation:horizontal;valign:middle;width:auto; align:right;"&gt;</t>
-  </si>
-  <si>
-    <t>align 属性无效，不能使DIV中的元素居中</t>
-  </si>
-  <si>
-    <t>added Border</t>
-  </si>
-  <si>
-    <t>Iwedgit.java, CSS.java</t>
-  </si>
-  <si>
-    <t>图型背景尚未加上加框</t>
-  </si>
-  <si>
-    <t>added font style, font size</t>
-  </si>
-  <si>
-    <t>added default CSS</t>
-  </si>
-  <si>
-    <t>Ibutton.java,Iwedgit.java,CSS.java</t>
-  </si>
-  <si>
-    <t>done</t>
-  </si>
-  <si>
-    <t>added code to process Cookies ,for logon URLs</t>
-  </si>
-  <si>
-    <t>remove Android's same name method</t>
-  </si>
-  <si>
-    <t>is V 5.1.5</t>
-  </si>
-  <si>
-    <t>ICheckBox.java</t>
-  </si>
-  <si>
-    <t>IOS不能在lua的initiate函数中自动调用，否则会出错退出，需要手动触发。</t>
-  </si>
-  <si>
-    <t>added Password TEXTFIeld Type</t>
-  </si>
-  <si>
-    <t>Location.java</t>
-  </si>
-  <si>
-    <t>GPS location</t>
-  </si>
-  <si>
-    <t>Log.java</t>
-  </si>
-  <si>
-    <t>logger wrapper</t>
-  </si>
-  <si>
-    <t>减少网络连接测试时间
-AbstractProperties.java
-1.move isAppServerAccessed to "public static"
-2.change to: if(appServer.startsWith("http://") &amp;&amp; isAppServerAccessed)
-3.add:
-   else
-      {
-         appServer="";
-      }
-UIFactory.loadOnline()
-add:urlConn.setConnectTimeout(10000);</t>
-  </si>
-  <si>
-    <t>lua 公用改件改为sandbox/lua下来，修改package.loader注册路径，main中copy lua/目录到手机中</t>
-  </si>
-  <si>
-    <t>added getResponse()</t>
-  </si>
-  <si>
-    <t>added WebView</t>
-  </si>
-  <si>
-    <t>IWebView.java</t>
-  </si>
-  <si>
-    <t>ICOntainer.java
-layout.java</t>
-  </si>
-  <si>
-    <t>VideoPlayer.java</t>
-  </si>
-  <si>
-    <t>BaiDUMap.java</t>
-  </si>
-  <si>
-    <t>added</t>
-  </si>
-  <si>
-    <t>updated</t>
-  </si>
-  <si>
-    <t>for Bai Du map</t>
-  </si>
-  <si>
-    <t>for LBS location service</t>
-  </si>
-  <si>
-    <t>added methods</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    public void setOnclick(String onclick)
-    {
-     this.onclick=onclick;
-    }
-    public void setPressed(String pressed)
-    {
-     this.pressed=pressed;
-    }
-    public void setReleased(String released)
-    {
-     this.released=released;
-    }</t>
-  </si>
-  <si>
-    <t>Session.java</t>
-  </si>
-  <si>
-    <t>为了减少图片重复率，当图片路径为“$/...”时，取为根路径，否则为app相对路径，
-public void setBackgroundImageUrl(String backgroundImageUrl,String cookies)
-else
-  {
-   if(backgroundImageUrl.startsWith("$/"))
-   {
-    bgImageURL= OLA.base + backgroundImageUrl.substring(1);
-   }
-   else
-   {
-    bgImageURL= base + backgroundImageUrl;
-   }
-  }</t>
-  </si>
-  <si>
-    <t>MethodThread.java</t>
-  </si>
-  <si>
-    <t>bug</t>
-  </si>
-  <si>
-    <t>AsyncDownload.java</t>
-  </si>
-  <si>
-    <t>1.url进行URLEncode
-2.callback 函数进行动态组装，允许带有算定义参数
-3.自动识别服务器提供 的下载的文件的默认文件名</t>
-  </si>
-  <si>
-    <t>为了能在app之间存储全局变量</t>
-  </si>
-  <si>
-    <t>Database.java</t>
-  </si>
-  <si>
-    <t>启动时copy lua, images目录</t>
-  </si>
-  <si>
-    <t>added prepared statement methods
-updare return string:
-      value=value.replace("'", "\\'");</t>
-  </si>
-  <si>
-    <t>jni/lua/lfs.c</t>
-  </si>
-  <si>
-    <t>added lfs lib to lua, FileConnector will not be used any more</t>
-  </si>
-  <si>
-    <t>else if (name.equalsIgnoreCase("PASSWORD"))
-     {
-      ITextField t= new ITextField(rootView,context,n);
-      t.setInputType(ITextField.TYPE_MASK_FLAGS, ITextField.TYPE_TEXT_VARIATION_WEB_PASSWORD);
-      v=t;
-     }</t>
-  </si>
-  <si>
-    <t>added UI type</t>
-  </si>
-  <si>
-    <t>add method</t>
-  </si>
-  <si>
-    <t>public String getRootViewId()</t>
-  </si>
-  <si>
-    <t>IProgressBar.java</t>
-  </si>
-  <si>
-    <t>muiltiple lines</t>
-  </si>
-  <si>
-    <t>update method switchView()
-added code:
-before load new view, show loading page, after loaded, remove the loading page</t>
-  </si>
-  <si>
-    <t>ProgressBar</t>
-  </si>
-  <si>
-    <t>attr</t>
-  </si>
-  <si>
-    <t>css</t>
-  </si>
-  <si>
-    <t>values</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">General </t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>color</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>rorate</t>
-  </si>
-  <si>
-    <t>a rotate(circle) view</t>
-  </si>
-  <si>
-    <t>image's url</t>
-  </si>
-  <si>
-    <t>bar</t>
-  </si>
-  <si>
-    <t>circle</t>
-  </si>
-  <si>
-    <t>a horizon bar progress bar</t>
-  </si>
-  <si>
-    <t>a circle progress bar</t>
-  </si>
-  <si>
-    <t>width</t>
-  </si>
-  <si>
-    <t>height</t>
-  </si>
-  <si>
-    <t>px</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>100px;</t>
-  </si>
-  <si>
-    <t>hex RGB color</t>
-  </si>
-  <si>
-    <t>progress-image</t>
-  </si>
-  <si>
-    <t>#00FFFFFF;</t>
-  </si>
-  <si>
-    <t>lfs.c</t>
-  </si>
-  <si>
-    <t>assert文件在APP path下面，则程序不能下载更新lua代码,需转移lua文件到Douments下，则可下载更新</t>
-  </si>
-  <si>
-    <t>done
-oc self supported, defined in Iview.h</t>
-  </si>
-  <si>
-    <t>ignored, needn't to copy it</t>
-  </si>
-  <si>
-    <t>database</t>
-  </si>
-  <si>
-    <t>need to be transered to use Sqlite3.lua</t>
-  </si>
-  <si>
-    <t>auto be executed while entered the is view</t>
-  </si>
-  <si>
-    <t>will be executed while exit this view and switch to an other page</t>
-  </si>
-  <si>
-    <t>the file name should be "*.xml.lua"</t>
-  </si>
-  <si>
-    <t>Log</t>
-  </si>
-  <si>
-    <t>Log:d(u,m)</t>
-  </si>
-  <si>
-    <t>u--module name
-m--messages</t>
-  </si>
-  <si>
-    <t>Log:i(u,m)</t>
-  </si>
-  <si>
-    <t>Log:f(u,m)</t>
-  </si>
-  <si>
-    <t>UI</t>
-  </si>
-  <si>
-    <t>lui</t>
-  </si>
-  <si>
-    <t>lui is a encapesulated ui toolkit, see: lua_ui.lua</t>
-  </si>
-  <si>
-    <t>createView(viewXml)</t>
-  </si>
-  <si>
-    <t>create an UI view</t>
-  </si>
-  <si>
-    <t>viewXml-- the view's description xml string</t>
-  </si>
-  <si>
-    <t>rerutn--view's id, if the view xml do not has an ID, will auto assigned one</t>
-  </si>
-  <si>
-    <t>xml should has only one root(top) xml node, or will be wrong</t>
-  </si>
-  <si>
-    <t>addView(id)</t>
-  </si>
-  <si>
-    <t>add a sub view to the current view</t>
-  </si>
-  <si>
-    <t>removeView(id)</t>
-  </si>
-  <si>
-    <t>remove a subview</t>
-  </si>
-  <si>
-    <t>switch(viewName, callMethod, params)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">forward to another view </t>
-  </si>
-  <si>
-    <t>viewName</t>
-  </si>
-  <si>
-    <t>the view's xml file name will be forwarded to</t>
-  </si>
-  <si>
-    <t>callMethod</t>
-  </si>
-  <si>
-    <t>called method name while entered the forwarded view</t>
-  </si>
-  <si>
-    <t>params</t>
-  </si>
-  <si>
-    <t>param values for the next view</t>
-  </si>
-  <si>
-    <t>getParameters()</t>
-  </si>
-  <si>
-    <t>get the parameter string which was transferred from the previous view</t>
-  </si>
-  <si>
-    <t>LMProperties:exit()</t>
-  </si>
-  <si>
-    <t>in an app, this method while return the app to the portal app</t>
-  </si>
-  <si>
-    <t>sys.reload()</t>
-  </si>
-  <si>
-    <t>reload/refresh the current view, only for Android(mainlyfor Test)</t>
-  </si>
-  <si>
-    <t>this function is available for portal app</t>
-  </si>
-  <si>
-    <t>while will remove all the cached view infor form the cache</t>
-  </si>
-  <si>
-    <t>will a swipe gesture was recognized, the method will be executed</t>
-  </si>
-  <si>
-    <t>direction</t>
-  </si>
-  <si>
-    <t>swipe directions, an int value:
-1--swipe to right
-2--swipre to left</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> function swipe(direction)
-  if direction==1 then  next()   elseif direction==2 then    previous()  end
- end</t>
-  </si>
-  <si>
-    <t>default functions</t>
-  </si>
-  <si>
-    <t>function initiate()</t>
-  </si>
-  <si>
-    <t>function exit()</t>
-  </si>
-  <si>
-    <t>function swipe(direction)</t>
-  </si>
-  <si>
-    <t>if returns 0, will exit the app and back to portal, if it is already in portal, exit the software</t>
-  </si>
-  <si>
-    <t>if returns 1, it is an inner view's back action, do nothing else except the code in this function</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> function back()
-    ui:switchView("StudyView.xml","reset()","")
-     return 1
- end</t>
-  </si>
-  <si>
-    <t>function back()</t>
-  </si>
-  <si>
-    <t>life cycle</t>
-  </si>
-  <si>
-    <t>default objects</t>
-  </si>
-  <si>
-    <t>分辨率</t>
-  </si>
-  <si>
-    <t>1080*1920</t>
-  </si>
-  <si>
-    <t>MeiZu</t>
-  </si>
-  <si>
-    <t>note2</t>
-  </si>
-  <si>
-    <t>Iphone Retina 3.5'</t>
-  </si>
-  <si>
-    <t>320*480</t>
-  </si>
-  <si>
-    <t>测试机</t>
-  </si>
-  <si>
-    <t>原生代码可调脚本代码</t>
-  </si>
-  <si>
-    <t>脚本注入原生环境</t>
+    <t>Installation</t>
+  </si>
+  <si>
+    <t>configuration</t>
+  </si>
+  <si>
+    <t>File name</t>
+  </si>
+  <si>
+    <t>should has an extention, must be like "*.*" and should not start with "."</t>
+  </si>
+  <si>
+    <t>Dir name</t>
+  </si>
+  <si>
+    <t>should not has a dot char".", or it will be processed as a file.</t>
+  </si>
+  <si>
+    <t>Defined Apps</t>
+  </si>
+  <si>
+    <t>pre-defined apps</t>
+  </si>
+  <si>
+    <t>olaos</t>
+  </si>
+  <si>
+    <t>olaos is the core of the plateform, it must be defined. While the app was started, it will load "olaos" firstly, then the developer can do something in the beging of the app.
+Olaos can be used to check the new version of the apps or do some other pilot things like advertisements.</t>
+  </si>
+  <si>
+    <t>olaportal</t>
+  </si>
+  <si>
+    <t>if you have multiple sub apps, olaportal can be used to manage them.</t>
+  </si>
+  <si>
+    <t>this is not forced but recommended.</t>
+  </si>
+  <si>
+    <t>en the OLA team will continue to improve both of the two apps, the development team also can be update them according to their business requirements.</t>
+  </si>
+  <si>
+    <t>(sys apps)</t>
+  </si>
+  <si>
+    <t>User apps</t>
+  </si>
+  <si>
+    <t>the apps developed by users should put into the root folder "assert", same as olaos and olaportal.</t>
+  </si>
+  <si>
+    <t>if you only has one self developed app, it can be replce olaportal, so that the system can load it directly after the OLA plateform was started.</t>
+  </si>
+  <si>
+    <t>版本</t>
+  </si>
+  <si>
+    <t>app程序文件和资源文件可安装在网络服务器上。</t>
   </si>
 </sst>
 </file>
@@ -1058,7 +1120,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1104,6 +1166,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1494,10 +1559,207 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:O67"/>
+  <dimension ref="B2:B5"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>279</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="3" width="17.109375" customWidth="1"/>
+    <col min="4" max="4" width="73.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D4" s="22"/>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D5" s="22"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D6" s="22"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>284</v>
+      </c>
+      <c r="D7" s="22"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>285</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>292</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D10" s="22" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D11" s="22" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D12" s="22" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D13" s="22"/>
+    </row>
+    <row r="14" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D14" s="22" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>293</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D16" s="22" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D17" s="22"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D18" s="22"/>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D19" s="22"/>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D20" s="22"/>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D21" s="22"/>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D22" s="22"/>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D23" s="22"/>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D24" s="22"/>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D25" s="22"/>
+    </row>
+    <row r="26" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D26" s="22"/>
+    </row>
+    <row r="27" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D27" s="22"/>
+    </row>
+    <row r="28" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D28" s="22"/>
+    </row>
+    <row r="29" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D29" s="22"/>
+    </row>
+    <row r="30" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D30" s="22"/>
+    </row>
+    <row r="31" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D31" s="22"/>
+    </row>
+    <row r="32" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D32" s="22"/>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D33" s="22"/>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D34" s="22"/>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D35" s="22"/>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D36" s="22"/>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D37" s="22"/>
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D38" s="22"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:O69"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1513,18 +1775,18 @@
   <sheetData>
     <row r="2" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G2" s="16"/>
       <c r="I2" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J2" s="17"/>
       <c r="K2" s="17"/>
@@ -1563,16 +1825,16 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="I4" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="J4" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="K4" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="N4" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="3:15" x14ac:dyDescent="0.3">
@@ -1582,10 +1844,10 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="3:15" x14ac:dyDescent="0.3">
@@ -1597,34 +1859,34 @@
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I6" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="J6" t="s">
+        <v>266</v>
+      </c>
+      <c r="N6" t="s">
         <v>270</v>
-      </c>
-      <c r="N6" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="7" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="3:15" x14ac:dyDescent="0.3">
@@ -1636,10 +1898,10 @@
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="3:15" x14ac:dyDescent="0.3">
@@ -1651,25 +1913,25 @@
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C10" s="15" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="3:15" x14ac:dyDescent="0.3">
@@ -1688,7 +1950,7 @@
     </row>
     <row r="13" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C13" s="2" t="s">
-        <v>11</v>
+        <v>296</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -1700,171 +1962,165 @@
         <v>12</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>13</v>
+        <v>297</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C16" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>60</v>
-      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="6"/>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>60</v>
-      </c>
+      <c r="C17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
     </row>
     <row r="18" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C18" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>70</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C19" s="3"/>
+      <c r="C19" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
+      <c r="F19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="20" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
+      <c r="C20" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C21" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
-      <c r="F21" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="F21" s="3"/>
     </row>
     <row r="22" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C22" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="C22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
     </row>
     <row r="23" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C23" s="3" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C24" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
-      <c r="F24" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>60</v>
+      <c r="F24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C25" s="3"/>
+      <c r="C25" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
+      <c r="F25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="26" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C26" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
+      <c r="C26" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="27" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C27" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
     </row>
     <row r="28" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C28" s="2" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -1873,22 +2129,20 @@
     </row>
     <row r="29" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C29" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>62</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="D29" s="9"/>
       <c r="E29" s="9"/>
-      <c r="F29" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>60</v>
+      <c r="F29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C30" s="2" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -1896,309 +2150,315 @@
       <c r="G30" s="2"/>
     </row>
     <row r="31" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C31" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
+      <c r="C31" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E31" s="9"/>
       <c r="F31" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C32" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="C32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
     </row>
     <row r="33" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C33" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
-      <c r="F33" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>28</v>
+      <c r="F33" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C34" s="7" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C35" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
-      <c r="F35" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>60</v>
+      <c r="F35" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C36" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
+      <c r="C36" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="37" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C37" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
-      <c r="F37" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>14</v>
+      <c r="F37" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C38" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E38" s="3"/>
-      <c r="F38" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="C38" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
     </row>
     <row r="39" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C39" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C40" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D40" s="3"/>
+        <v>30</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="E40" s="3"/>
       <c r="F40" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C41" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
-      <c r="F41" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>60</v>
+      <c r="F41" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C42" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
+      <c r="C42" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="43" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C43" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
-      <c r="F43" s="4" t="s">
-        <v>14</v>
+      <c r="F43" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C44" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>60</v>
-      </c>
+      <c r="C44" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
     </row>
     <row r="45" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C45" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>36</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D45" s="3"/>
       <c r="E45" s="3"/>
-      <c r="F45" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G45" s="5" t="s">
-        <v>28</v>
+      <c r="F45" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C46" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
+      <c r="C46" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="47" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C47" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D47" s="3"/>
+        <v>34</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="E47" s="3"/>
-      <c r="F47" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>14</v>
+      <c r="F47" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="48" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C48" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="C48" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
     </row>
     <row r="49" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C49" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
+      <c r="C49" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="50" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C50" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
-      <c r="F50" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>60</v>
+      <c r="F50" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="51" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C51" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="G51" s="6" t="s">
-        <v>60</v>
-      </c>
+      <c r="C51" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
     </row>
     <row r="52" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C52" s="3" t="s">
-        <v>43</v>
+      <c r="C52" s="7" t="s">
+        <v>53</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
       <c r="F52" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="56" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C56" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-    </row>
-    <row r="57" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C57" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C53" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="54" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C54" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="58" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C58" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
+      <c r="C58" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
     </row>
     <row r="59" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C59" s="3" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -2207,18 +2467,16 @@
     </row>
     <row r="60" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C60" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>58</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="D60" s="3"/>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
     </row>
     <row r="61" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C61" s="3" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -2227,19 +2485,39 @@
     </row>
     <row r="62" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C62" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D62" s="3"/>
+        <v>56</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
     </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C67" t="s">
-        <v>213</v>
-      </c>
-      <c r="D67" t="s">
-        <v>164</v>
+    <row r="63" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C63" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+    </row>
+    <row r="64" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C64" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+    </row>
+    <row r="69" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C69" t="s">
+        <v>209</v>
+      </c>
+      <c r="D69" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -2254,12 +2532,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B17" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19:F20"/>
+    <sheetView topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2283,209 +2561,212 @@
     </row>
     <row r="4" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F4" t="s">
+        <v>143</v>
+      </c>
+      <c r="G4" t="s">
         <v>145</v>
-      </c>
-      <c r="G4" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="6" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="3:7" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" t="s">
         <v>75</v>
       </c>
-      <c r="E7" t="s">
-        <v>76</v>
-      </c>
       <c r="F7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" t="s">
         <v>77</v>
       </c>
-      <c r="D8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E8" t="s">
-        <v>78</v>
-      </c>
       <c r="F8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" t="s">
         <v>79</v>
-      </c>
-      <c r="F10" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="11" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" t="s">
         <v>81</v>
-      </c>
-      <c r="D11" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="12" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" t="s">
         <v>83</v>
-      </c>
-      <c r="E12" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="13" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" t="s">
         <v>85</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>86</v>
       </c>
-      <c r="E13" t="s">
-        <v>87</v>
-      </c>
       <c r="F13" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F14" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" t="s">
         <v>91</v>
       </c>
-      <c r="D15" t="s">
-        <v>86</v>
-      </c>
-      <c r="E15" t="s">
-        <v>92</v>
-      </c>
       <c r="F15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" t="s">
         <v>94</v>
-      </c>
-      <c r="E17" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="144" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" t="s">
+        <v>97</v>
+      </c>
+      <c r="E18" s="10" t="s">
         <v>96</v>
-      </c>
-      <c r="D18" t="s">
-        <v>98</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E19" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="E19" s="10" t="s">
-        <v>100</v>
-      </c>
       <c r="F19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F20" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" t="s">
         <v>102</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="E21" s="10" t="s">
-        <v>104</v>
-      </c>
       <c r="F21" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
+      </c>
+      <c r="F23" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -2493,16 +2774,16 @@
         <v>42415</v>
       </c>
       <c r="C24" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D24" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="D24" t="s">
-        <v>82</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>108</v>
-      </c>
       <c r="F24" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
@@ -2510,27 +2791,27 @@
         <v>42415</v>
       </c>
       <c r="C25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" ht="316.8" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="B26" s="11">
         <v>42418</v>
       </c>
       <c r="C26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>111</v>
+        <v>277</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -2538,13 +2819,16 @@
         <v>42422</v>
       </c>
       <c r="C27" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
+      </c>
+      <c r="F27" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="28" spans="2:6" ht="72" x14ac:dyDescent="0.3">
@@ -2552,13 +2836,13 @@
         <v>42422</v>
       </c>
       <c r="C28" t="s">
+        <v>110</v>
+      </c>
+      <c r="D28" t="s">
+        <v>97</v>
+      </c>
+      <c r="E28" s="10" t="s">
         <v>112</v>
-      </c>
-      <c r="D28" t="s">
-        <v>98</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="29" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -2566,10 +2850,10 @@
         <v>42422</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
@@ -2577,13 +2861,13 @@
         <v>42429</v>
       </c>
       <c r="C30" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
@@ -2591,10 +2875,10 @@
         <v>42429</v>
       </c>
       <c r="C31" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -2602,430 +2886,452 @@
         <v>42429</v>
       </c>
       <c r="C32" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B33" s="11">
         <v>42429</v>
       </c>
       <c r="C33" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B34" s="11">
         <v>42429</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D34" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B35" s="11">
         <v>42429</v>
       </c>
       <c r="C35" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D35" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E35" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B36" s="11">
         <v>42429</v>
       </c>
       <c r="C36" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D36" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B37" s="11">
         <v>42430</v>
       </c>
       <c r="C37" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B38" s="11">
         <v>42430</v>
       </c>
       <c r="C38" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B39" s="11">
         <v>42449</v>
       </c>
       <c r="C39" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D39" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+      <c r="F39" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B40" s="11">
         <v>42449</v>
       </c>
       <c r="C40" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D40" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+      <c r="F40" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B41" s="11">
         <v>42449</v>
       </c>
       <c r="C41" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D41" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+      <c r="F41" t="s">
+        <v>276</v>
+      </c>
+      <c r="G41" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B42" s="11">
         <v>42450</v>
       </c>
       <c r="C42" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D42" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B43" s="11">
         <v>42511</v>
       </c>
       <c r="C43" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D43" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="E43" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="E43" s="10" t="s">
-        <v>141</v>
-      </c>
       <c r="F43" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B44" s="11">
         <v>42512</v>
       </c>
       <c r="C44" t="s">
+        <v>138</v>
+      </c>
+      <c r="D44" t="s">
         <v>140</v>
       </c>
-      <c r="D44" t="s">
-        <v>142</v>
-      </c>
       <c r="F44" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B45" s="11">
         <v>42512</v>
       </c>
       <c r="C45" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D45" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
+        <v>147</v>
+      </c>
+      <c r="D46" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C47" t="s">
+        <v>110</v>
+      </c>
+      <c r="D47" t="s">
         <v>149</v>
       </c>
-      <c r="D46" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C47" t="s">
-        <v>112</v>
-      </c>
-      <c r="D47" t="s">
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C48" t="s">
+        <v>150</v>
+      </c>
+      <c r="D48" t="s">
+        <v>81</v>
+      </c>
+      <c r="E48" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C48" t="s">
-        <v>152</v>
-      </c>
-      <c r="D48" t="s">
-        <v>82</v>
-      </c>
-      <c r="E48" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="49" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E49" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F49" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="50" spans="3:6" ht="135.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="51" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="52" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D52" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="53" spans="3:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>274</v>
+      </c>
+      <c r="F52" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="53" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D53" t="s">
-        <v>159</v>
-      </c>
-      <c r="E53" s="10" t="s">
-        <v>161</v>
+        <v>156</v>
+      </c>
+      <c r="E53" s="10"/>
+      <c r="F53" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="54" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D54" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="55" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D55" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E55" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="56" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D56" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E56" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="57" spans="3:6" ht="172.8" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D57" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="58" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E58" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="59" spans="3:6" ht="216" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D59" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="60" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D60" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="61" spans="3:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D61" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="62" spans="3:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D62" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="63" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D63" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F63" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="64" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
+        <v>176</v>
+      </c>
+      <c r="D64" t="s">
+        <v>160</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="F64" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="65" spans="3:6" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="C65" t="s">
+        <v>110</v>
+      </c>
+      <c r="D65" t="s">
+        <v>179</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="66" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C66" t="s">
+        <v>110</v>
+      </c>
+      <c r="D66" t="s">
         <v>180</v>
       </c>
-      <c r="D64" t="s">
-        <v>164</v>
-      </c>
-      <c r="E64" s="10" t="s">
+      <c r="E66" s="10" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="65" spans="3:5" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="C65" t="s">
-        <v>112</v>
-      </c>
-      <c r="D65" t="s">
+      <c r="F66" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="67" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C67" t="s">
+        <v>182</v>
+      </c>
+      <c r="D67" t="s">
+        <v>161</v>
+      </c>
+      <c r="E67" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="E65" s="10" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="66" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C66" t="s">
-        <v>112</v>
-      </c>
-      <c r="D66" t="s">
+    </row>
+    <row r="68" spans="3:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C68" t="s">
+        <v>110</v>
+      </c>
+      <c r="D68" t="s">
+        <v>161</v>
+      </c>
+      <c r="E68" s="10" t="s">
         <v>184</v>
-      </c>
-      <c r="E66" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="67" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C67" t="s">
-        <v>186</v>
-      </c>
-      <c r="D67" t="s">
-        <v>165</v>
-      </c>
-      <c r="E67" s="10" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="68" spans="3:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C68" t="s">
-        <v>112</v>
-      </c>
-      <c r="D68" t="s">
-        <v>165</v>
-      </c>
-      <c r="E68" s="10" t="s">
-        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -3034,7 +3340,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M7"/>
   <sheetViews>
@@ -3049,7 +3355,7 @@
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B2" s="18" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
@@ -3065,7 +3371,7 @@
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
@@ -3073,15 +3379,15 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -3092,12 +3398,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3111,111 +3417,111 @@
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="G2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F4" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G4" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
+        <v>201</v>
+      </c>
+      <c r="F5" t="s">
+        <v>203</v>
+      </c>
+      <c r="G5" t="s">
         <v>205</v>
-      </c>
-      <c r="F5" t="s">
-        <v>207</v>
-      </c>
-      <c r="G5" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F6" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D8" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E8" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F8" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C9" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E9" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F9" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E10" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F10" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E11" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F11" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F12" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -3223,11 +3529,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E34"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -3243,218 +3549,218 @@
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C2" s="12" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B4" s="12" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B5" s="12" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C6" s="12" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B7" s="12" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C8" s="12" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E8" s="19"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C9" s="12" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="E9" s="19"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B17" s="12" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C22" s="12" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C23" s="12" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C24" s="12" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D25" s="14"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B26" s="12" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D27" s="19"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C28" s="12" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C29" s="12" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C30" s="12" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B32" s="12" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D32" s="20"/>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B33" s="12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C34" s="12" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
